--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_4_urine_filtration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D46D71-BDF4-4A8C-921A-793550013436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6941E9-2BF0-485A-A5A9-8E567F5B4762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="483">
   <si>
     <t>type</t>
   </si>
@@ -1339,12 +1339,6 @@
     <t>${u_urine_conserve} = 'Non'</t>
   </si>
   <si>
-    <t>tz_sch_sth_impact_202311_4_urine_filtration</t>
-  </si>
-  <si>
-    <t>(2023 Nov) - 4. SCH/STH - Urine Filtration</t>
-  </si>
-  <si>
     <t>label::English</t>
   </si>
   <si>
@@ -1399,9 +1393,6 @@
     <t>regex(., '^[0-9]{2}$')</t>
   </si>
   <si>
-    <t>Must be two digits between 9 and 100</t>
-  </si>
-  <si>
     <t>Select school ID</t>
   </si>
   <si>
@@ -1481,6 +1472,18 @@
   </si>
   <si>
     <t>u_ward</t>
+  </si>
+  <si>
+    <t>(2023 Nov) - 4. SCH/STH - Urine Filtration V1</t>
+  </si>
+  <si>
+    <t>tz_sch_sth_impact_202311_4_urine_filtration_v1</t>
+  </si>
+  <si>
+    <t>The two digit code assigned to you</t>
+  </si>
+  <si>
+    <t>Must be two digit between 9 and 100</t>
   </si>
 </sst>
 </file>
@@ -2107,7 +2110,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2135,10 +2138,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>2</v>
@@ -2147,7 +2150,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>4</v>
@@ -2176,15 +2179,17 @@
         <v>9</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>449</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28" t="s">
-        <v>453</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>454</v>
+        <v>447</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>482</v>
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
@@ -2202,7 +2207,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="27"/>
@@ -2221,10 +2226,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="27"/>
@@ -2246,7 +2251,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="27"/>
@@ -2265,10 +2270,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="27"/>
@@ -2284,10 +2289,10 @@
     </row>
     <row r="7" spans="1:13" s="33" customFormat="1" ht="31.5">
       <c r="A7" s="27" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -2296,7 +2301,7 @@
       <c r="G7" s="29"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
@@ -2304,10 +2309,10 @@
     </row>
     <row r="8" spans="1:13" s="21" customFormat="1">
       <c r="A8" s="49" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
@@ -2322,13 +2327,13 @@
     </row>
     <row r="9" spans="1:13" s="21" customFormat="1">
       <c r="A9" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>457</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>460</v>
-      </c>
       <c r="C9" s="52" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="51"/>
@@ -2336,7 +2341,7 @@
       <c r="G9" s="37"/>
       <c r="H9" s="36"/>
       <c r="I9" s="36" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
@@ -2344,13 +2349,13 @@
     </row>
     <row r="10" spans="1:13" s="21" customFormat="1" ht="63">
       <c r="A10" s="36" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="51"/>
@@ -2358,7 +2363,7 @@
       <c r="G10" s="37"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
@@ -2369,18 +2374,18 @@
         <v>14</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="36"/>
       <c r="F11" s="27" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -2395,10 +2400,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="36"/>
@@ -2406,7 +2411,7 @@
       <c r="G12" s="37"/>
       <c r="H12" s="27"/>
       <c r="I12" s="36" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>10</v>
@@ -2422,18 +2427,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="36"/>
       <c r="F13" s="27" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="36"/>
@@ -2451,7 +2456,7 @@
         <v>431</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="28"/>
@@ -2473,7 +2478,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="28"/>
@@ -2501,7 +2506,7 @@
         <v>424</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="40"/>
@@ -2525,7 +2530,7 @@
         <v>425</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="40"/>
@@ -2552,7 +2557,7 @@
         <v>430</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="40"/>
@@ -2573,10 +2578,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="40"/>
@@ -2586,7 +2591,7 @@
         <v>432</v>
       </c>
       <c r="I19" s="40" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="J19" s="28" t="s">
         <v>10</v>
@@ -2602,7 +2607,7 @@
         <v>429</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="36"/>
@@ -2618,7 +2623,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="53" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B21" s="53"/>
       <c r="C21" s="54"/>
@@ -2640,7 +2645,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="40"/>
@@ -2732,7 +2737,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>25</v>
@@ -9693,7 +9698,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -9716,13 +9721,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_4_urine_filtration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6941E9-2BF0-485A-A5A9-8E567F5B4762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E8DC61-B6F6-4DE4-BAE5-9E629261D64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="484">
   <si>
     <t>type</t>
   </si>
@@ -1417,9 +1417,6 @@
     <t>C3</t>
   </si>
   <si>
-    <t>u</t>
-  </si>
-  <si>
     <t>join(' ', ${u_index})</t>
   </si>
   <si>
@@ -1474,16 +1471,22 @@
     <t>u_ward</t>
   </si>
   <si>
-    <t>(2023 Nov) - 4. SCH/STH - Urine Filtration V1</t>
-  </si>
-  <si>
-    <t>tz_sch_sth_impact_202311_4_urine_filtration_v1</t>
-  </si>
-  <si>
     <t>The two digit code assigned to you</t>
   </si>
   <si>
     <t>Must be two digit between 9 and 100</t>
+  </si>
+  <si>
+    <t>Urine results</t>
+  </si>
+  <si>
+    <t>(2023 Nov) - 4. SCH/STH - Urine Filtration V1.1</t>
+  </si>
+  <si>
+    <t>tz_sch_sth_impact_202311_4_urine_filtration_v1_1</t>
+  </si>
+  <si>
+    <t>u_1_1</t>
   </si>
 </sst>
 </file>
@@ -2110,7 +2113,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:G2"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2182,14 +2185,14 @@
         <v>447</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="27" t="s">
         <v>451</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
@@ -2226,7 +2229,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>449</v>
@@ -2301,7 +2304,7 @@
       <c r="G7" s="29"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
@@ -2312,9 +2315,11 @@
         <v>456</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>460</v>
-      </c>
-      <c r="C8" s="50"/>
+        <v>483</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>480</v>
+      </c>
       <c r="D8" s="50"/>
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
@@ -2333,7 +2338,7 @@
         <v>457</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="51"/>
@@ -2355,7 +2360,7 @@
         <v>459</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="51"/>
@@ -2363,7 +2368,7 @@
       <c r="G10" s="37"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
@@ -2374,7 +2379,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>438</v>
@@ -2382,10 +2387,10 @@
       <c r="D11" s="37"/>
       <c r="E11" s="36"/>
       <c r="F11" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -2400,7 +2405,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>439</v>
@@ -2411,34 +2416,31 @@
       <c r="G12" s="37"/>
       <c r="H12" s="27"/>
       <c r="I12" s="36" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>10</v>
       </c>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
-      <c r="M12" s="38" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="13" spans="1:13" s="38" customFormat="1" ht="47.25">
       <c r="A13" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="36"/>
       <c r="F13" s="27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="36"/>
@@ -2557,7 +2559,7 @@
         <v>430</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="40"/>
@@ -2578,7 +2580,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>444</v>
@@ -2591,7 +2593,7 @@
         <v>432</v>
       </c>
       <c r="I19" s="40" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J19" s="28" t="s">
         <v>10</v>
@@ -2623,7 +2625,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="53" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B21" s="53"/>
       <c r="C21" s="54"/>
@@ -9698,7 +9700,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -9721,10 +9723,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>437</v>

--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_4_urine_filtration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E8DC61-B6F6-4DE4-BAE5-9E629261D64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D9C876-FF1B-4EEE-A954-4116C9BEF0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="477">
   <si>
     <t>type</t>
   </si>
@@ -1351,12 +1351,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>Please select the QR code of the registered child</t>
-  </si>
-  <si>
-    <t>Please scan the QR Code again</t>
-  </si>
-  <si>
     <t>Was the child's urine preserved?</t>
   </si>
   <si>
@@ -1417,15 +1411,6 @@
     <t>C3</t>
   </si>
   <si>
-    <t>join(' ', ${u_index})</t>
-  </si>
-  <si>
-    <t>if (${C2} = 1,'',substring-after(${C1},${u_index}))</t>
-  </si>
-  <si>
-    <t>u_index</t>
-  </si>
-  <si>
     <t>u_code_id</t>
   </si>
   <si>
@@ -1438,12 +1423,6 @@
     <t>This child code already exists. Please edit the sequence number from the previous question</t>
   </si>
   <si>
-    <t>not(selected(${C3}, ${u_index}))</t>
-  </si>
-  <si>
-    <t>concat(${u_site_id}, '_', ${u_index})</t>
-  </si>
-  <si>
     <t>end repeat</t>
   </si>
   <si>
@@ -1459,15 +1438,6 @@
     <t>Please select the code of the registered child</t>
   </si>
   <si>
-    <t>The code must be the same. If the child has not been registered, please register him/her first.</t>
-  </si>
-  <si>
-    <t>u_code_id2</t>
-  </si>
-  <si>
-    <t>. = ${u_code_id}</t>
-  </si>
-  <si>
     <t>u_ward</t>
   </si>
   <si>
@@ -1480,13 +1450,22 @@
     <t>Urine results</t>
   </si>
   <si>
-    <t>(2023 Nov) - 4. SCH/STH - Urine Filtration V1.1</t>
-  </si>
-  <si>
-    <t>tz_sch_sth_impact_202311_4_urine_filtration_v1_1</t>
-  </si>
-  <si>
-    <t>u_1_1</t>
+    <t>(2023 Nov) - 4. SCH/STH - Urine Filtration V1.2</t>
+  </si>
+  <si>
+    <t>tz_sch_sth_impact_202311_4_urine_filtration_v1_2</t>
+  </si>
+  <si>
+    <t>u_1_2</t>
+  </si>
+  <si>
+    <t>not(selected(${C3}, ${u_code_id}))</t>
+  </si>
+  <si>
+    <t>if (${C2} = 1,'',substring-after(${C1},${u_code_id}))</t>
+  </si>
+  <si>
+    <t>join(' ', ${u_code_id})</t>
   </si>
 </sst>
 </file>
@@ -2107,13 +2086,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2182,17 +2161,17 @@
         <v>9</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="27" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
@@ -2210,7 +2189,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="27"/>
@@ -2229,10 +2208,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="27"/>
@@ -2254,7 +2233,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="27"/>
@@ -2273,10 +2252,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="27"/>
@@ -2292,10 +2271,10 @@
     </row>
     <row r="7" spans="1:13" s="33" customFormat="1" ht="31.5">
       <c r="A7" s="27" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -2304,7 +2283,7 @@
       <c r="G7" s="29"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
@@ -2312,13 +2291,13 @@
     </row>
     <row r="8" spans="1:13" s="21" customFormat="1">
       <c r="A8" s="49" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="49"/>
@@ -2332,13 +2311,13 @@
     </row>
     <row r="9" spans="1:13" s="21" customFormat="1">
       <c r="A9" s="36" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="51"/>
@@ -2346,7 +2325,7 @@
       <c r="G9" s="37"/>
       <c r="H9" s="36"/>
       <c r="I9" s="36" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
@@ -2354,13 +2333,13 @@
     </row>
     <row r="10" spans="1:13" s="21" customFormat="1" ht="63">
       <c r="A10" s="36" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="51"/>
@@ -2368,7 +2347,7 @@
       <c r="G10" s="37"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
@@ -2379,18 +2358,18 @@
         <v>14</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="36"/>
       <c r="F11" s="27" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -2400,115 +2379,116 @@
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
     </row>
-    <row r="12" spans="1:13" s="38" customFormat="1" ht="47.25">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:13" s="39" customFormat="1">
+      <c r="A12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>463</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="36" t="s">
-        <v>468</v>
-      </c>
+      <c r="B12" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-    </row>
-    <row r="13" spans="1:13" s="38" customFormat="1" ht="47.25">
-      <c r="A13" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>473</v>
-      </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="27" t="s">
-        <v>476</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>474</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="36"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+    </row>
+    <row r="13" spans="1:13" s="39" customFormat="1" ht="31.5">
+      <c r="A13" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="I13" s="28"/>
       <c r="J13" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-    </row>
-    <row r="14" spans="1:13" s="39" customFormat="1">
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="1:13" s="21" customFormat="1" ht="31.5">
       <c r="A14" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>440</v>
       </c>
       <c r="D14" s="30"/>
-      <c r="E14" s="28"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="27" t="s">
+      <c r="G14" s="41"/>
+      <c r="H14" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="I14" s="40"/>
+      <c r="J14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-    </row>
-    <row r="15" spans="1:13" s="39" customFormat="1" ht="31.5">
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+    </row>
+    <row r="15" spans="1:13" s="21" customFormat="1" ht="31.5">
       <c r="A15" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>16</v>
+        <v>425</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>441</v>
       </c>
       <c r="D15" s="30"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>18</v>
-      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="28" t="s">
         <v>432</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="27" t="s">
+      <c r="I15" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
     </row>
     <row r="16" spans="1:13" s="21" customFormat="1" ht="31.5">
       <c r="A16" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="40"/>
@@ -2524,15 +2504,15 @@
       <c r="K16" s="40"/>
       <c r="L16" s="40"/>
     </row>
-    <row r="17" spans="1:13" s="21" customFormat="1" ht="31.5">
+    <row r="17" spans="1:12" s="21" customFormat="1" ht="31.5">
       <c r="A17" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="40"/>
@@ -2542,114 +2522,99 @@
         <v>432</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>427</v>
-      </c>
-      <c r="J17" s="28"/>
+        <v>465</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="K17" s="40"/>
       <c r="L17" s="40"/>
-      <c r="M17" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="21" customFormat="1" ht="31.5">
-      <c r="A18" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>430</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="41"/>
+    </row>
+    <row r="18" spans="1:12" s="38" customFormat="1" ht="31.5">
+      <c r="A18" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-    </row>
-    <row r="19" spans="1:13" s="21" customFormat="1" ht="31.5">
-      <c r="A19" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>471</v>
-      </c>
-      <c r="C19" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="53" t="s">
+        <v>462</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+    </row>
+    <row r="20" spans="1:12" s="21" customFormat="1">
+      <c r="A20" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="I19" s="40" t="s">
-        <v>472</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-    </row>
-    <row r="20" spans="1:13" s="38" customFormat="1" ht="31.5">
-      <c r="A20" s="36" t="s">
-        <v>428</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>445</v>
-      </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="53" t="s">
-        <v>469</v>
-      </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-    </row>
-    <row r="22" spans="1:13" s="21" customFormat="1">
+      <c r="D20" s="30"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+    </row>
+    <row r="21" spans="1:12" s="21" customFormat="1">
+      <c r="A21" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+    </row>
+    <row r="22" spans="1:12" s="21" customFormat="1">
       <c r="A22" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="D22" s="30"/>
+        <v>22</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="40"/>
       <c r="F22" s="28"/>
       <c r="G22" s="41"/>
@@ -2659,55 +2624,19 @@
       <c r="K22" s="40"/>
       <c r="L22" s="40"/>
     </row>
-    <row r="23" spans="1:13" s="21" customFormat="1">
-      <c r="A23" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>21</v>
-      </c>
+    <row r="23" spans="1:12">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="43"/>
       <c r="D23" s="44"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="41"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="44"/>
       <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
+      <c r="I23" s="45"/>
       <c r="J23" s="28"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-    </row>
-    <row r="24" spans="1:13" s="21" customFormat="1">
-      <c r="A24" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9700,7 +9629,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -9723,10 +9652,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>437</v>

--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_4_urine_filtration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D9C876-FF1B-4EEE-A954-4116C9BEF0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E24DB2-6519-4BEE-BCC8-B88B8FD62FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="470">
   <si>
     <t>type</t>
   </si>
@@ -1321,24 +1321,9 @@
     <t>round( 10 * ${u_sh_egg} div ${u_urine_vol} )</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>u_end_note</t>
-  </si>
-  <si>
     <t>u_sch_man</t>
   </si>
   <si>
-    <t>u_urine_conserve</t>
-  </si>
-  <si>
-    <t>${u_urine_conserve} = 'Oui'</t>
-  </si>
-  <si>
-    <t>${u_urine_conserve} = 'Non'</t>
-  </si>
-  <si>
     <t>label::English</t>
   </si>
   <si>
@@ -1351,9 +1336,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>Was the child's urine preserved?</t>
-  </si>
-  <si>
     <t>Urine volume: Record the milliliters (ml) of urine collected from the person</t>
   </si>
   <si>
@@ -1366,9 +1348,6 @@
     <t>Number of eggs (S. Mansoni) per 10 ml</t>
   </si>
   <si>
-    <t>The child's urine was not preserved. You cannot save its results.</t>
-  </si>
-  <si>
     <t>Additional Notes</t>
   </si>
   <si>
@@ -1450,15 +1429,6 @@
     <t>Urine results</t>
   </si>
   <si>
-    <t>(2023 Nov) - 4. SCH/STH - Urine Filtration V1.2</t>
-  </si>
-  <si>
-    <t>tz_sch_sth_impact_202311_4_urine_filtration_v1_2</t>
-  </si>
-  <si>
-    <t>u_1_2</t>
-  </si>
-  <si>
     <t>not(selected(${C3}, ${u_code_id}))</t>
   </si>
   <si>
@@ -1466,6 +1436,15 @@
   </si>
   <si>
     <t>join(' ', ${u_code_id})</t>
+  </si>
+  <si>
+    <t>u_1_3</t>
+  </si>
+  <si>
+    <t>(2023 Nov) - 4. SCH/STH - Urine Filtration V1.3</t>
+  </si>
+  <si>
+    <t>tz_sch_sth_impact_202311_4_urine_filtration_v1_3</t>
   </si>
 </sst>
 </file>
@@ -2086,13 +2065,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2120,10 +2099,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>2</v>
@@ -2132,7 +2111,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>4</v>
@@ -2161,17 +2140,17 @@
         <v>9</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="27" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
@@ -2189,7 +2168,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="27"/>
@@ -2208,10 +2187,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="27"/>
@@ -2233,7 +2212,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="27"/>
@@ -2252,10 +2231,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="27"/>
@@ -2271,10 +2250,10 @@
     </row>
     <row r="7" spans="1:13" s="33" customFormat="1" ht="31.5">
       <c r="A7" s="27" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -2283,7 +2262,7 @@
       <c r="G7" s="29"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
@@ -2291,13 +2270,13 @@
     </row>
     <row r="8" spans="1:13" s="21" customFormat="1">
       <c r="A8" s="49" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="49"/>
@@ -2311,13 +2290,13 @@
     </row>
     <row r="9" spans="1:13" s="21" customFormat="1">
       <c r="A9" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="C9" s="52" t="s">
         <v>452</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>455</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>459</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="51"/>
@@ -2325,7 +2304,7 @@
       <c r="G9" s="37"/>
       <c r="H9" s="36"/>
       <c r="I9" s="36" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
@@ -2333,13 +2312,13 @@
     </row>
     <row r="10" spans="1:13" s="21" customFormat="1" ht="63">
       <c r="A10" s="36" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="51"/>
@@ -2347,7 +2326,7 @@
       <c r="G10" s="37"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
@@ -2358,18 +2337,18 @@
         <v>14</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="36"/>
       <c r="F11" s="27" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -2379,20 +2358,24 @@
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
     </row>
-    <row r="12" spans="1:13" s="39" customFormat="1">
+    <row r="12" spans="1:13" s="39" customFormat="1" ht="31.5">
       <c r="A12" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>431</v>
+        <v>16</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="30"/>
+      <c r="F12" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>18</v>
+      </c>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
       <c r="J12" s="27" t="s">
@@ -2401,184 +2384,162 @@
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
     </row>
-    <row r="13" spans="1:13" s="39" customFormat="1" ht="31.5">
+    <row r="13" spans="1:13" s="21" customFormat="1">
       <c r="A13" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>16</v>
+        <v>424</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D13" s="30"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="27" t="s">
+      <c r="E13" s="40"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-    </row>
-    <row r="14" spans="1:13" s="21" customFormat="1" ht="31.5">
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+    </row>
+    <row r="14" spans="1:13" s="21" customFormat="1">
       <c r="A14" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="40"/>
       <c r="F14" s="28"/>
       <c r="G14" s="41"/>
-      <c r="H14" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="28" t="s">
-        <v>10</v>
-      </c>
+      <c r="H14" s="28"/>
+      <c r="I14" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="J14" s="28"/>
       <c r="K14" s="40"/>
       <c r="L14" s="40"/>
-    </row>
-    <row r="15" spans="1:13" s="21" customFormat="1" ht="31.5">
+      <c r="M14" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="21" customFormat="1">
       <c r="A15" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="40"/>
       <c r="F15" s="28"/>
       <c r="G15" s="41"/>
-      <c r="H15" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>427</v>
-      </c>
-      <c r="J15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="K15" s="40"/>
       <c r="L15" s="40"/>
-      <c r="M15" s="21" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="16" spans="1:13" s="21" customFormat="1" ht="31.5">
       <c r="A16" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="40"/>
       <c r="F16" s="28"/>
       <c r="G16" s="41"/>
-      <c r="H16" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="I16" s="40"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="40" t="s">
+        <v>458</v>
+      </c>
       <c r="J16" s="28" t="s">
         <v>10</v>
       </c>
       <c r="K16" s="40"/>
       <c r="L16" s="40"/>
     </row>
-    <row r="17" spans="1:12" s="21" customFormat="1" ht="31.5">
-      <c r="A17" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>464</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="I17" s="40" t="s">
-        <v>465</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-    </row>
-    <row r="18" spans="1:12" s="38" customFormat="1" ht="31.5">
-      <c r="A18" s="36" t="s">
-        <v>428</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>443</v>
-      </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="53" t="s">
-        <v>462</v>
-      </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
+    <row r="17" spans="1:12">
+      <c r="A17" s="53" t="s">
+        <v>455</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+    </row>
+    <row r="18" spans="1:12" s="21" customFormat="1">
+      <c r="A18" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+    </row>
+    <row r="19" spans="1:12" s="21" customFormat="1">
+      <c r="A19" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
     </row>
     <row r="20" spans="1:12" s="21" customFormat="1">
       <c r="A20" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>444</v>
-      </c>
-      <c r="D20" s="30"/>
+        <v>22</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="40"/>
       <c r="F20" s="28"/>
       <c r="G20" s="41"/>
@@ -2588,55 +2549,19 @@
       <c r="K20" s="40"/>
       <c r="L20" s="40"/>
     </row>
-    <row r="21" spans="1:12" s="21" customFormat="1">
-      <c r="A21" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>21</v>
-      </c>
+    <row r="21" spans="1:12">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="43"/>
       <c r="D21" s="44"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="41"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="44"/>
       <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="28"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-    </row>
-    <row r="22" spans="1:12" s="21" customFormat="1">
-      <c r="A22" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2668,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>25</v>
@@ -9652,13 +9577,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_4_urine_filtration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F143271-956D-4B4D-AF92-2E6EF90EA5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD825DE-7451-42BB-AF3E-7BC562CC0DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -250,9 +250,6 @@
     <t>join(' ', ${u_code_id})</t>
   </si>
   <si>
-    <t>tz_sch_sth_impact_202311_4_urine_filtration_v2</t>
-  </si>
-  <si>
     <t>(2024 Jan) - 4. SCH/STH - Urine Filtration V2</t>
   </si>
   <si>
@@ -374,6 +371,9 @@
   </si>
   <si>
     <t>${u_add_result} = 'Yes'</t>
+  </si>
+  <si>
+    <t>tz_sch_sth_impact_202311_4_urine_v2</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1064,10 +1064,10 @@
         <v>35</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>2</v>
@@ -1079,7 +1079,7 @@
         <v>36</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>4</v>
@@ -1114,7 +1114,7 @@
         <v>65</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="14"/>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="14"/>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="46"/>
       <c r="G4" s="14"/>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="46"/>
       <c r="G5" s="14"/>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="46"/>
       <c r="G6" s="14"/>
@@ -1269,7 +1269,7 @@
         <v>51</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>67</v>
@@ -1345,17 +1345,17 @@
     </row>
     <row r="11" spans="1:16" s="25" customFormat="1">
       <c r="A11" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>109</v>
-      </c>
       <c r="C11" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" s="58"/>
       <c r="G11" s="23"/>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="23"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="J12" s="47"/>
       <c r="K12" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14" t="s">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="15"/>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="J13" s="48"/>
       <c r="K13" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="14" t="s">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" s="48"/>
       <c r="G14" s="27"/>
@@ -1456,7 +1456,7 @@
       <c r="I14" s="28"/>
       <c r="J14" s="51"/>
       <c r="K14" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="15" t="s">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" s="48"/>
       <c r="G15" s="27"/>
@@ -1485,7 +1485,7 @@
       <c r="I15" s="28"/>
       <c r="J15" s="51"/>
       <c r="K15" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L15" s="27" t="s">
         <v>32</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F16" s="48"/>
       <c r="G16" s="27"/>
@@ -1517,7 +1517,7 @@
       <c r="I16" s="28"/>
       <c r="J16" s="51"/>
       <c r="K16" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L16" s="27"/>
       <c r="M16" s="15"/>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" s="48"/>
       <c r="G17" s="27"/>
@@ -1544,7 +1544,7 @@
       <c r="I17" s="28"/>
       <c r="J17" s="51"/>
       <c r="K17" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L17" s="27" t="s">
         <v>62</v>
@@ -1558,17 +1558,17 @@
     </row>
     <row r="18" spans="1:16" s="12" customFormat="1">
       <c r="A18" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="C18" s="53" t="s">
         <v>106</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>107</v>
       </c>
       <c r="D18" s="53"/>
       <c r="E18" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F18" s="54"/>
       <c r="G18" s="55"/>
@@ -1576,7 +1576,7 @@
       <c r="I18" s="56"/>
       <c r="J18" s="57"/>
       <c r="K18" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L18" s="55"/>
       <c r="M18" s="15" t="s">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19" s="48"/>
       <c r="G19" s="27"/>
@@ -1710,7 +1710,7 @@
     <col min="4" max="4" width="36.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.5">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>34</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
@@ -1734,13 +1734,13 @@
         <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1748,97 +1748,97 @@
         <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1851,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_4_urine_filtration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD825DE-7451-42BB-AF3E-7BC562CC0DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B230B70-40D4-451C-BDF4-76426D78D11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="115">
   <si>
     <t>type</t>
   </si>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t>tz_sch_sth_impact_202311_4_urine_v2</t>
+  </si>
+  <si>
+    <t>Namba hii ya mtoto tayari ipo. Tafadhali hariri nambari ya mfuatano kutoka kwa swali lililotangulia</t>
+  </si>
+  <si>
+    <t>Kiasi cha mkojo kinatakiwa kisizidi milimita 10</t>
   </si>
 </sst>
 </file>
@@ -1026,11 +1032,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1370,7 +1376,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:16" s="25" customFormat="1" ht="47.25">
+    <row r="12" spans="1:16" s="25" customFormat="1" ht="63">
       <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
@@ -1392,7 +1398,9 @@
       <c r="I12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="47"/>
+      <c r="J12" s="47" t="s">
+        <v>113</v>
+      </c>
       <c r="K12" s="14" t="s">
         <v>111</v>
       </c>
@@ -1425,7 +1433,9 @@
       <c r="I13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="48"/>
+      <c r="J13" s="48" t="s">
+        <v>114</v>
+      </c>
       <c r="K13" s="14" t="s">
         <v>111</v>
       </c>
@@ -1851,7 +1861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_4_urine_filtration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B230B70-40D4-451C-BDF4-76426D78D11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A965A6-90B6-496E-9F4C-AE120DBE3B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="123">
   <si>
     <t>type</t>
   </si>
@@ -250,9 +250,6 @@
     <t>join(' ', ${u_code_id})</t>
   </si>
   <si>
-    <t>(2024 Jan) - 4. SCH/STH - Urine Filtration V2</t>
-  </si>
-  <si>
     <t>Swahili</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>5 = +++</t>
   </si>
   <si>
-    <t>tz_u_202401_v2</t>
-  </si>
-  <si>
     <t>hint::Swahili</t>
   </si>
   <si>
@@ -373,13 +367,43 @@
     <t>${u_add_result} = 'Yes'</t>
   </si>
   <si>
-    <t>tz_sch_sth_impact_202311_4_urine_v2</t>
-  </si>
-  <si>
     <t>Namba hii ya mtoto tayari ipo. Tafadhali hariri nambari ya mfuatano kutoka kwa swali lililotangulia</t>
   </si>
   <si>
     <t>Kiasi cha mkojo kinatakiwa kisizidi milimita 10</t>
+  </si>
+  <si>
+    <t>(2024 Jan) - 4. SCH/STH - Urine Filtration V3</t>
+  </si>
+  <si>
+    <t>tz_sch_sth_impact_202311_4_urine_v3</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>note_mansoni</t>
+  </si>
+  <si>
+    <t>Check : Are you sure you found S. Mansoni in urine?</t>
+  </si>
+  <si>
+    <t>Hakiki : Ni kweli umepata S. Mansoni katika mkojo?</t>
+  </si>
+  <si>
+    <t>${u_sch_man}&gt;0</t>
+  </si>
+  <si>
+    <t>tz_u_202401_v3</t>
+  </si>
+  <si>
+    <t>p_macroscopique_hemat</t>
+  </si>
+  <si>
+    <t>Is the urine macroscopically hematuric?</t>
+  </si>
+  <si>
+    <t>Je kuna chembechembe za damu kwenye mkojo?</t>
   </si>
 </sst>
 </file>
@@ -461,7 +485,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +558,12 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -721,32 +751,32 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1030,13 +1060,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12:J13"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1070,10 +1100,10 @@
         <v>35</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>2</v>
@@ -1085,7 +1115,7 @@
         <v>36</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>4</v>
@@ -1120,7 +1150,7 @@
         <v>65</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="14"/>
@@ -1151,7 +1181,7 @@
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="14"/>
@@ -1178,7 +1208,7 @@
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F4" s="46"/>
       <c r="G4" s="14"/>
@@ -1205,7 +1235,7 @@
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F5" s="46"/>
       <c r="G5" s="14"/>
@@ -1232,7 +1262,7 @@
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F6" s="46"/>
       <c r="G6" s="14"/>
@@ -1275,7 +1305,7 @@
         <v>51</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>67</v>
@@ -1351,23 +1381,23 @@
     </row>
     <row r="11" spans="1:16" s="25" customFormat="1">
       <c r="A11" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="58"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="23"/>
       <c r="H11" s="14"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="58"/>
+      <c r="J11" s="56"/>
       <c r="K11" s="14"/>
       <c r="L11" s="23"/>
       <c r="M11" s="14" t="s">
@@ -1388,7 +1418,7 @@
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="23"/>
@@ -1399,10 +1429,10 @@
         <v>58</v>
       </c>
       <c r="J12" s="47" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14" t="s">
@@ -1423,7 +1453,7 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="15"/>
@@ -1434,10 +1464,10 @@
         <v>18</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="14" t="s">
@@ -1458,7 +1488,7 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F14" s="48"/>
       <c r="G14" s="27"/>
@@ -1466,7 +1496,7 @@
       <c r="I14" s="28"/>
       <c r="J14" s="51"/>
       <c r="K14" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="15" t="s">
@@ -1487,7 +1517,7 @@
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F15" s="48"/>
       <c r="G15" s="27"/>
@@ -1495,7 +1525,7 @@
       <c r="I15" s="28"/>
       <c r="J15" s="51"/>
       <c r="K15" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L15" s="27" t="s">
         <v>32</v>
@@ -1519,7 +1549,7 @@
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F16" s="48"/>
       <c r="G16" s="27"/>
@@ -1527,129 +1557,133 @@
       <c r="I16" s="28"/>
       <c r="J16" s="51"/>
       <c r="K16" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L16" s="27"/>
       <c r="M16" s="15"/>
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
     </row>
-    <row r="17" spans="1:16" s="12" customFormat="1" ht="31.5">
+    <row r="17" spans="1:16" s="12" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="D17" s="17"/>
-      <c r="E17" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="48"/>
+      <c r="E17" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="15"/>
       <c r="G17" s="27"/>
       <c r="H17" s="15"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>62</v>
-      </c>
+      <c r="J17" s="27"/>
+      <c r="K17" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="27"/>
       <c r="M17" s="15"/>
       <c r="N17" s="27"/>
       <c r="O17" s="27"/>
-      <c r="P17" s="12" t="s">
+    </row>
+    <row r="18" spans="1:16" s="12" customFormat="1" ht="31.5">
+      <c r="A18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="48"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="12" customFormat="1">
-      <c r="A18" s="52" t="s">
+    <row r="19" spans="1:16" s="58" customFormat="1" ht="31.5">
+      <c r="A19" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="K19" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M19" s="57"/>
+    </row>
+    <row r="20" spans="1:16" s="12" customFormat="1">
+      <c r="A20" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="L18" s="55"/>
-      <c r="M18" s="15" t="s">
+      <c r="D20" s="52"/>
+      <c r="E20" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="53"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-    </row>
-    <row r="19" spans="1:16" s="12" customFormat="1">
-      <c r="A19" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
     </row>
     <row r="21" spans="1:16" s="12" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="48"/>
       <c r="G21" s="27"/>
       <c r="H21" s="15"/>
       <c r="I21" s="28"/>
@@ -1660,43 +1694,83 @@
       <c r="N21" s="27"/>
       <c r="O21" s="27"/>
     </row>
-    <row r="22" spans="1:16" s="12" customFormat="1">
-      <c r="A22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+    <row r="22" spans="1:16">
+      <c r="A22" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+    </row>
+    <row r="23" spans="1:16" s="12" customFormat="1">
+      <c r="A23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="C23" s="30"/>
       <c r="D23" s="31"/>
       <c r="E23" s="49"/>
       <c r="F23" s="49"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="49"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="27"/>
-      <c r="L23" s="32"/>
+      <c r="L23" s="27"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+    </row>
+    <row r="24" spans="1:16" s="12" customFormat="1">
+      <c r="A24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1731,7 +1805,7 @@
         <v>34</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
@@ -1744,13 +1818,13 @@
         <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1758,97 +1832,97 @@
         <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1862,7 +1936,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1885,13 +1959,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_4_urine_filtration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B230B70-40D4-451C-BDF4-76426D78D11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6F2D1F-ABE1-44E3-9266-26DDDDDD0B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="125">
   <si>
     <t>type</t>
   </si>
@@ -88,12 +88,6 @@
     <t>u_urine_vol</t>
   </si>
   <si>
-    <t>. &gt;=0 and .&lt; 11</t>
-  </si>
-  <si>
-    <t>Le volume doit être limité à 10ml</t>
-  </si>
-  <si>
     <t>u_remarks</t>
   </si>
   <si>
@@ -250,9 +244,6 @@
     <t>join(' ', ${u_code_id})</t>
   </si>
   <si>
-    <t>(2024 Jan) - 4. SCH/STH - Urine Filtration V2</t>
-  </si>
-  <si>
     <t>Swahili</t>
   </si>
   <si>
@@ -301,9 +292,6 @@
     <t>5 = +++</t>
   </si>
   <si>
-    <t>tz_u_202401_v2</t>
-  </si>
-  <si>
     <t>hint::Swahili</t>
   </si>
   <si>
@@ -328,9 +316,6 @@
     <t>Tafadhali chagua namba ya mtoto aliyesajiliwa</t>
   </si>
   <si>
-    <t>Kiasi cha mkojo: Rekodi (milimita) kiwango cha mkojo kilichopatikana kutoka kwa mtoto</t>
-  </si>
-  <si>
     <t>Idadi ya Mayai (S. Haematobium)</t>
   </si>
   <si>
@@ -373,13 +358,58 @@
     <t>${u_add_result} = 'Yes'</t>
   </si>
   <si>
-    <t>tz_sch_sth_impact_202311_4_urine_v2</t>
-  </si>
-  <si>
     <t>Namba hii ya mtoto tayari ipo. Tafadhali hariri nambari ya mfuatano kutoka kwa swali lililotangulia</t>
   </si>
   <si>
-    <t>Kiasi cha mkojo kinatakiwa kisizidi milimita 10</t>
+    <t>(2024 Jan) - 4. SCH/STH - Urine Filtration V4</t>
+  </si>
+  <si>
+    <t>tz_sch_sth_impact_202311_4_urine_v4</t>
+  </si>
+  <si>
+    <t>Tarakimu mbili ulizopewa, mfano: 11, 22,…</t>
+  </si>
+  <si>
+    <t>tz_u_202401_v4</t>
+  </si>
+  <si>
+    <t>. = 10</t>
+  </si>
+  <si>
+    <t>Ujazo unatakiwa kuwa sawa na ml 10</t>
+  </si>
+  <si>
+    <t>The volume should be equal to 10 ml</t>
+  </si>
+  <si>
+    <t>Kiasi cha mkojo: Rekodi (Mililita) kiwango cha mkojo kilichopatikana kutoka kwa mtoto</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>note_mansoni</t>
+  </si>
+  <si>
+    <t>Check : Are you sure you found S. Mansoni in urine?</t>
+  </si>
+  <si>
+    <t>Hakiki : Ni kweli umepata S. Mansoni katika mkojo?</t>
+  </si>
+  <si>
+    <t>${u_sch_man}&gt;0</t>
+  </si>
+  <si>
+    <t>Is the urine macroscopically hematuric?</t>
+  </si>
+  <si>
+    <t>Je kuna chembechembe za damu kwenye mkojo?</t>
+  </si>
+  <si>
+    <t>u_macroscopique_hemat</t>
+  </si>
+  <si>
+    <t>${u_add_result} = 'Yes' and ${u_sch_man}&gt;0</t>
   </si>
 </sst>
 </file>
@@ -461,7 +491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +564,12 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -592,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -747,6 +783,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1030,13 +1072,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12:J13"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1064,16 +1106,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>2</v>
@@ -1082,10 +1124,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>4</v>
@@ -1103,7 +1145,7 @@
         <v>8</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="12" customFormat="1" ht="31.5">
@@ -1114,21 +1156,23 @@
         <v>9</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="46"/>
+        <v>87</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>110</v>
+      </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J2" s="50"/>
       <c r="K2" s="15"/>
@@ -1147,11 +1191,11 @@
         <v>12</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="46" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="14"/>
@@ -1171,14 +1215,14 @@
         <v>11</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="46" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F4" s="46"/>
       <c r="G4" s="14"/>
@@ -1201,11 +1245,11 @@
         <v>13</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="46" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F5" s="46"/>
       <c r="G5" s="14"/>
@@ -1225,14 +1269,14 @@
         <v>11</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="46" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F6" s="46"/>
       <c r="G6" s="14"/>
@@ -1249,10 +1293,10 @@
     </row>
     <row r="7" spans="1:16" s="20" customFormat="1" ht="31.5">
       <c r="A7" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -1264,7 +1308,7 @@
       <c r="J7" s="46"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
@@ -1272,17 +1316,17 @@
     </row>
     <row r="8" spans="1:16" s="12" customFormat="1">
       <c r="A8" s="36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="36"/>
@@ -1297,17 +1341,17 @@
     </row>
     <row r="9" spans="1:16" s="12" customFormat="1">
       <c r="A9" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" s="47"/>
       <c r="G9" s="38"/>
@@ -1316,7 +1360,7 @@
       <c r="J9" s="47"/>
       <c r="K9" s="23"/>
       <c r="L9" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
@@ -1324,17 +1368,17 @@
     </row>
     <row r="10" spans="1:16" s="12" customFormat="1" ht="63">
       <c r="A10" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="38"/>
@@ -1343,7 +1387,7 @@
       <c r="J10" s="47"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
@@ -1351,17 +1395,17 @@
     </row>
     <row r="11" spans="1:16" s="25" customFormat="1">
       <c r="A11" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="58" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F11" s="58"/>
       <c r="G11" s="23"/>
@@ -1381,28 +1425,28 @@
         <v>14</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="47" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="23"/>
       <c r="H12" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J12" s="47" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14" t="s">
@@ -1419,25 +1463,25 @@
         <v>16</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="48" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="14" t="s">
@@ -1451,14 +1495,14 @@
         <v>15</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="48" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F14" s="48"/>
       <c r="G14" s="27"/>
@@ -1466,7 +1510,7 @@
       <c r="I14" s="28"/>
       <c r="J14" s="51"/>
       <c r="K14" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="15" t="s">
@@ -1480,14 +1524,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="48" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F15" s="48"/>
       <c r="G15" s="27"/>
@@ -1495,10 +1539,10 @@
       <c r="I15" s="28"/>
       <c r="J15" s="51"/>
       <c r="K15" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="27"/>
@@ -1512,14 +1556,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="48" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F16" s="48"/>
       <c r="G16" s="27"/>
@@ -1527,7 +1571,7 @@
       <c r="I16" s="28"/>
       <c r="J16" s="51"/>
       <c r="K16" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L16" s="27"/>
       <c r="M16" s="15"/>
@@ -1539,14 +1583,14 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="48" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F17" s="48"/>
       <c r="G17" s="27"/>
@@ -1554,10 +1598,10 @@
       <c r="I17" s="28"/>
       <c r="J17" s="51"/>
       <c r="K17" s="14" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M17" s="15"/>
       <c r="N17" s="27"/>
@@ -1567,89 +1611,99 @@
       </c>
     </row>
     <row r="18" spans="1:16" s="12" customFormat="1">
-      <c r="A18" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="53" t="s">
+      <c r="A18" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="L18" s="27"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+    </row>
+    <row r="19" spans="1:16" s="60" customFormat="1" ht="31.5">
+      <c r="A19" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="K19" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="L18" s="55"/>
-      <c r="M18" s="15" t="s">
+      <c r="M19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-    </row>
-    <row r="19" spans="1:16" s="12" customFormat="1">
-      <c r="A19" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
+    </row>
+    <row r="20" spans="1:16" s="12" customFormat="1">
+      <c r="A20" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" s="55"/>
+      <c r="M20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
     </row>
     <row r="21" spans="1:16" s="12" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="48"/>
       <c r="G21" s="27"/>
       <c r="H21" s="15"/>
       <c r="I21" s="28"/>
@@ -1660,43 +1714,83 @@
       <c r="N21" s="27"/>
       <c r="O21" s="27"/>
     </row>
-    <row r="22" spans="1:16" s="12" customFormat="1">
-      <c r="A22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+    <row r="22" spans="1:16">
+      <c r="A22" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+    </row>
+    <row r="23" spans="1:16" s="12" customFormat="1">
+      <c r="A23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>19</v>
+      </c>
       <c r="C23" s="30"/>
       <c r="D23" s="31"/>
       <c r="E23" s="49"/>
       <c r="F23" s="49"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="49"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="27"/>
-      <c r="L23" s="32"/>
+      <c r="L23" s="27"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+    </row>
+    <row r="24" spans="1:16" s="12" customFormat="1">
+      <c r="A24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1722,16 +1816,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
@@ -1741,114 +1835,114 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1862,7 +1956,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1874,24 +1968,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_4_urine_filtration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6F2D1F-ABE1-44E3-9266-26DDDDDD0B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA89B01-BB7E-41DE-B47D-F9F8AB3F5F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -361,12 +361,6 @@
     <t>Namba hii ya mtoto tayari ipo. Tafadhali hariri nambari ya mfuatano kutoka kwa swali lililotangulia</t>
   </si>
   <si>
-    <t>(2024 Jan) - 4. SCH/STH - Urine Filtration V4</t>
-  </si>
-  <si>
-    <t>tz_sch_sth_impact_202311_4_urine_v4</t>
-  </si>
-  <si>
     <t>Tarakimu mbili ulizopewa, mfano: 11, 22,…</t>
   </si>
   <si>
@@ -410,6 +404,12 @@
   </si>
   <si>
     <t>${u_add_result} = 'Yes' and ${u_sch_man}&gt;0</t>
+  </si>
+  <si>
+    <t>(2024 Jan) - 4. SCH/STH - Urine Filtration V4.1</t>
+  </si>
+  <si>
+    <t>tz_sch_sth_impact_202311_4_urine_v4_1</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -789,6 +789,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1074,11 +1077,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1165,7 +1168,7 @@
         <v>87</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14" t="s">
@@ -1319,7 +1322,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>65</v>
@@ -1467,18 +1470,18 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="I13" s="17" t="s">
-        <v>114</v>
-      </c>
       <c r="J13" s="48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>106</v>
@@ -1490,48 +1493,42 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1">
-      <c r="A14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="14" t="s">
+    <row r="14" spans="1:16" s="60" customFormat="1" ht="31.5">
+      <c r="A14" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="K14" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="L14" s="27"/>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F15" s="48"/>
       <c r="G15" s="27"/>
@@ -1541,29 +1538,26 @@
       <c r="K15" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L15" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="15"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
-      <c r="P15" s="12" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="48"/>
       <c r="G16" s="27"/>
@@ -1573,24 +1567,29 @@
       <c r="K16" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L16" s="27"/>
+      <c r="L16" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="M16" s="15"/>
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
-    </row>
-    <row r="17" spans="1:16" s="12" customFormat="1" ht="31.5">
+      <c r="P16" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="12" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="48"/>
       <c r="G17" s="27"/>
@@ -1598,67 +1597,71 @@
       <c r="I17" s="28"/>
       <c r="J17" s="51"/>
       <c r="K17" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>60</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="L17" s="27"/>
       <c r="M17" s="15"/>
       <c r="N17" s="27"/>
       <c r="O17" s="27"/>
-      <c r="P17" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="12" customFormat="1">
+    </row>
+    <row r="18" spans="1:16" s="12" customFormat="1" ht="31.5">
       <c r="A18" s="15" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="D18" s="17"/>
-      <c r="E18" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="15"/>
+      <c r="E18" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="48"/>
       <c r="G18" s="27"/>
       <c r="H18" s="15"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="L18" s="27"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>60</v>
+      </c>
       <c r="M18" s="15"/>
       <c r="N18" s="27"/>
       <c r="O18" s="27"/>
-    </row>
-    <row r="19" spans="1:16" s="60" customFormat="1" ht="31.5">
-      <c r="A19" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="K19" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="M19" s="15" t="s">
+      <c r="P18" s="12" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="19" spans="1:16" s="12" customFormat="1">
+      <c r="A19" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="27"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
     </row>
     <row r="20" spans="1:16" s="12" customFormat="1">
       <c r="A20" s="52" t="s">
@@ -1955,7 +1958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1979,10 +1982,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>69</v>
